--- a/Use Case Description_BS.xlsx
+++ b/Use Case Description_BS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\slc\tpa\desktop\grind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\slc\tpa\desktop\grind\app\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270D933C-F04C-4CEA-BA48-648724579DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FCBEFB-16FC-44ED-998A-9A22EE44040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{0E4076AC-9F8E-4A6C-BC58-BD13C8E3A38B}"/>
+    <workbookView xWindow="35970" yWindow="1860" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="1" xr2:uid="{0E4076AC-9F8E-4A6C-BC58-BD13C8E3A38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings and Preferences" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>:</t>
   </si>
@@ -86,15 +86,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>User must be login first</t>
-  </si>
-  <si>
-    <t>User opens the profile page</t>
-  </si>
-  <si>
-    <t>Customize user's biodata, notification, email and password</t>
-  </si>
-  <si>
     <t>Display the latest update settings and preferences</t>
   </si>
   <si>
@@ -102,72 +93,21 @@
   </si>
   <si>
     <t>Action when workspace admin invite another user to his workspace</t>
-  </si>
-  <si>
-    <t>Workspace admin access open current workspace</t>
   </si>
   <si>
     <t>Allow the current user to modified their personal profile, such as set profile photo, username, 
 date of birth, email, password and notification frequency.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. personal information
-2. confidential information
-3. notification settings </t>
-  </si>
-  <si>
-    <t>1.1 update the personal information
-1.2 display changes
-2.1 invalid input
-2.2 update the confidential information
-2.2 display changes
-3.1 update notification settings
-3.2 display changes</t>
-  </si>
-  <si>
     <t>Workspace admin click the invite button, choose between invite with email or generate link</t>
   </si>
   <si>
-    <t>Workspace admin and target user</t>
-  </si>
-  <si>
-    <t>Create workspace, grant workspace admin</t>
-  </si>
-  <si>
     <t>Validation that the user is the admin of the current open workspace</t>
   </si>
   <si>
-    <t>Display notification on the target user or produce invitation link</t>
-  </si>
-  <si>
-    <t>1. Input target user in dropdown
-2. Press link invitation button
-3. Press email invitation buttton</t>
-  </si>
-  <si>
-    <t>1.1 display list user that is not join the workspace
-2.1 set expired link
-2.2 generate link
-3.1 notified target user</t>
-  </si>
-  <si>
-    <t>1. email is not in the currect format
-2. email is already in use
-3. invalid password length</t>
-  </si>
-  <si>
-    <t>1. hide invite button if user is not the admin of the current workspace</t>
-  </si>
-  <si>
     <t>Leave Workspace</t>
   </si>
   <si>
-    <t>Workspace member/admin leave the workspace</t>
-  </si>
-  <si>
-    <t>Workspace member/admin press leave workspace button</t>
-  </si>
-  <si>
     <t>Workspace member and workspace admin</t>
   </si>
   <si>
@@ -177,29 +117,13 @@
     <t>Stakeholder</t>
   </si>
   <si>
-    <t>Workspace member, workspace admin, board member, and board admin</t>
-  </si>
-  <si>
-    <t>Delete workspace if only one admin and no member at the current workspace</t>
-  </si>
-  <si>
     <t>1. user press leave workspace button</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 validate user status on current workspace
-1.2 get sum of all admin on current workspace
-1.3 get sum of all member on current workspace
-1.4 validate base on the number of admin and member
-1.5 if only one member delete workspace </t>
-  </si>
-  <si>
     <t>Delete Board</t>
-  </si>
-  <si>
-    <t>Board admin decide to delete current board</t>
   </si>
   <si>
     <t>Board admin press delete board button</t>
@@ -216,74 +140,184 @@
     <t>Board admin</t>
   </si>
   <si>
-    <t>Permission another board admin</t>
-  </si>
-  <si>
-    <t>Create board</t>
-  </si>
-  <si>
-    <t>Create workspace</t>
-  </si>
-  <si>
     <t>Current board will be deleted or closed</t>
   </si>
   <si>
     <t>1. board admin press delete board button</t>
   </si>
   <si>
-    <t>1.1 validate based on the quantity of board admin at current board
-1.2 if there is only one board admin then show pop up close or delete board button
-1.3 else notified another board admin and wait their approval</t>
-  </si>
-  <si>
     <t>Comment Card</t>
   </si>
   <si>
     <t>board member, board admin, workspace member, and workspace admin</t>
   </si>
   <si>
-    <t>User add comment to the current card</t>
-  </si>
-  <si>
     <t>Add comment when user access the card, it will be visible either to the card watcher or board member</t>
   </si>
   <si>
-    <t>Card watcher and board member</t>
-  </si>
-  <si>
-    <t>Card watcher, board member, board admin, workspace member, workspace admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create card </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display current input comment </t>
-  </si>
-  <si>
     <t>Mention other user</t>
   </si>
   <si>
-    <t>1. One admin and many member at the current workspace</t>
-  </si>
-  <si>
-    <t>1. Another board admin reject delete request</t>
-  </si>
-  <si>
     <t>1. There are no card in the list</t>
   </si>
   <si>
-    <t>1. open current card
-2. input comment
-3. mention user</t>
+    <t>Update user's biodata, notification, email, and password when user open profile page</t>
+  </si>
+  <si>
+    <t>User's input on profile page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. user open profile page
+2. user choose to update personal information
+3. user choose to update confident information
+4. user choose to update notification settings </t>
+  </si>
+  <si>
+    <t>1. user choose not to update its profile
+2. user leave profile page</t>
+  </si>
+  <si>
+    <t>Accept invitation
+Reject invitation</t>
+  </si>
+  <si>
+    <t>Workspace admin</t>
+  </si>
+  <si>
+    <t>Workspace admin click invite member button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. all user have joined the workspace
+2. user have been invited </t>
+  </si>
+  <si>
+    <t>generate invitation link, if the workspace admin choose to invite by email then send to the user's email</t>
+  </si>
+  <si>
+    <t>1. workspace admin opens workspace setting
+2. workspace admin presses invite member button
+3. workspace admin chooses a target user in the dropdown
+4. workspace admin chooses link invitation button
+5. workspace admin chooses email invitation buttton</t>
+  </si>
+  <si>
+    <t>1.1 display workspace setting page
+2.1 display invite member page
+2.2 display list user that is not join the workspace
+3.1 generate link
+3.2 set link expired
+3.1 notified target user
+4.1 alert link invitation
+4.2 tell the workspace admin to copy the link invitation
+5.1 send link invitation to the target user's email
+5.1 alert that link invitation is successfully send</t>
+  </si>
+  <si>
+    <t>A workspace member leave the workspace
+A workspace admin leave the workspace</t>
+  </si>
+  <si>
+    <t>Workspace member/admin intended to leave workspace</t>
+  </si>
+  <si>
+    <t>Delete workspace
+Grant workspace admin</t>
+  </si>
+  <si>
+    <t>Workspace member</t>
+  </si>
+  <si>
+    <t>workspace member/admin pressed member button</t>
+  </si>
+  <si>
+    <t>Remove user from the workspace member/admin
+Grant workspace admin if there is only one admin and its intended to leave, yet there are many member in the current workspace
+Delete workspace if only one member in the workspace</t>
+  </si>
+  <si>
+    <t>1.1 get workspace member and workspace admin data
+1.2 validate user status on current workspace by checking wheter user id is exist on the workspace member and workspace admin data
+1.2.1 if the user is the admin of the workspace 
+1.2.1.1 if the sum of all admin is equal to one
+1.2.1.1.1 if the sum of all member is equal to one
+1.2.2.1.1.1 delete workspace
+1.2.1.2 else if the sum of all member is not equal to one
+1.2.1.2.1 randomly grant workspace admin to the workspace member
+1.2.1.2.2 delete user id from the workspace member data
+1.2.1.2.3 delete user id from the workspace admin data
+1.2.2 else if the user is not the admin of the workspace
+1.2.2.1 delete user id from the workspace member data
+1.2.2.2 delete user id from the workspace admin data</t>
+  </si>
+  <si>
+    <t>1. Workspace member/admin canceled to leave the workspace</t>
+  </si>
+  <si>
+    <t>Board admin access the custom button, press close board button then press the delete board button</t>
+  </si>
+  <si>
+    <t>Permission another board admin
+Reject the delete board request</t>
+  </si>
+  <si>
+    <t>Card watcher</t>
+  </si>
+  <si>
+    <t>Board admin presses the custom button</t>
+  </si>
+  <si>
+    <t>1.1 get board member and board admin data
+1.2 if the board admin is equal to one
+1.2.1 delete board
+1.3 else if the board admin is not equal to one
+1.3.1 send delete board notification to other board admin
+1.3.1.1 if all of the board admin is agree
+1.3.1.1.1 delete board
+1.3.1.2 else if not all of the board admin is agree
+1.3.1.2.1 cancel delete board</t>
+  </si>
+  <si>
+    <t>1. Another board admin reject delete request
+2. Board admin decides not to delete the current board</t>
+  </si>
+  <si>
+    <t>Card watcher open the card, then add comment in the comment section</t>
+  </si>
+  <si>
+    <t>Card watcher inputs in the comment card form</t>
+  </si>
+  <si>
+    <t>Card watcher open the current card</t>
+  </si>
+  <si>
+    <t>Display current input in the comment section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. card watcher opens the current card
+1.2 card watcher input in the comment section
+</t>
   </si>
   <si>
     <t>1.1 display card pop up
-2.1 update comment
-3.1 validate board visibility
-3.2 display list of user</t>
-  </si>
-  <si>
-    <t>User input in the comment card form, use '@' character to trigger comment</t>
+1.1.2 system will catch every alphabet that card 
+1.1.2.1 if card watcher press '@'
+1.1.2.1.1 get other card watcher
+1.1.2.1.2 display other card watcher
+1.1.2.1.2.1 if the input type the card watcher that have been displayed 
+1.1.2.1.2.1.1 mark it as the mentioned user
+1.1.3 store the user input into the database
+1.1.4 display the latest input in comment section</t>
+  </si>
+  <si>
+    <t>1.1 update the personal information
+1.2 set changes to profile page
+2.1 if email input is not in email format validation and password length is less than 6 characters
+2.1.1 display error message
+2.2 else if email is in email input and password length is more than equal to 6 characters
+2.2.1 update the confidential information
+2.3 set changes to profile page
+3.1 update notification settings
+3.2 set changes to profile page</t>
   </si>
 </sst>
 </file>
@@ -425,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,10 +482,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,18 +510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A55CB2A-289B-4A89-B173-0E9B0EE8CE4D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +848,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -829,10 +860,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -841,10 +872,10 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -853,10 +884,10 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -865,92 +896,109 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
+      <c r="A7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9"/>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C6:D6"/>
+  <mergeCells count="12">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -961,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447F2554-2032-4129-82AC-2DCBCE49AAD7}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,10 +1029,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -993,10 +1041,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1005,10 +1053,10 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1017,10 +1065,10 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1029,28 +1077,34 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1059,10 +1113,10 @@
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9"/>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1071,16 +1125,16 @@
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1090,42 +1144,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:4" ht="250.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="9"/>
+      <c r="C12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1136,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF12B0F1-969D-41E4-B23B-AF93306791A0}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1199,7 @@
     <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="79.28515625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1156,22 +1210,22 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1180,10 +1234,10 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1192,10 +1246,10 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1204,34 +1258,34 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="C6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1240,28 +1294,28 @@
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1271,14 +1325,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:4" ht="221.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1288,19 +1342,24 @@
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C12:D12"/>
@@ -1308,11 +1367,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1324,7 +1378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,22 +1397,22 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1367,10 +1421,10 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1379,10 +1433,10 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1391,34 +1445,34 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="C6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1427,10 +1481,10 @@
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="9"/>
+      <c r="C8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1439,16 +1493,16 @@
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1458,42 +1512,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:4" ht="162.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="9"/>
+      <c r="C12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1504,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7236F2-D9DE-41FC-A5BB-EBAB07987491}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1567,7 @@
     <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1524,10 +1578,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1536,10 +1590,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1548,10 +1602,10 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1560,10 +1614,10 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1572,10 +1626,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="9"/>
+      <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1584,22 +1638,22 @@
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1608,10 +1662,10 @@
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="9"/>
+      <c r="C8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1620,16 +1674,16 @@
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="C9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1639,14 +1693,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:4" ht="162.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1656,25 +1710,25 @@
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="9"/>
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
